--- a/includes/file_modele/template-worklog.xlsx
+++ b/includes/file_modele/template-worklog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\asana-s\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stage\wp-content\plugins\orion-task-manager\includes\file_modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB065E-E07F-4C5B-A741-7A83416D0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726B5C5-97D2-432B-9A98-5D7172F6C110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worklog" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>TEAM:</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Code Quality</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
   </si>
   <si>
     <t>Work consistency</t>
-  </si>
-  <si>
-    <t>Reliability</t>
   </si>
   <si>
     <t>N°</t>
@@ -85,12 +80,84 @@
       <t xml:space="preserve">Full Name: </t>
     </r>
   </si>
+  <si>
+    <t>EMPLOYEE NAME</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>POSITION HELD</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS</t>
+  </si>
+  <si>
+    <t>WHAT WORK WAS DONE?</t>
+  </si>
+  <si>
+    <t>UNSATISFACTORY (0 - 39)</t>
+  </si>
+  <si>
+    <t>FAIR (40 - 60)</t>
+  </si>
+  <si>
+    <t>GOOD (61 - 85)</t>
+  </si>
+  <si>
+    <t>EXCELLENT (86 - 100)</t>
+  </si>
+  <si>
+    <t>General Performance: Goals versus Accomplishment</t>
+  </si>
+  <si>
+    <t>Overall rating from Support Department</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Initiative &amp; Creativity: Ability to understand, plan work, and to proceed with a task without being told every detail + the ability to make constructive suggestions)</t>
+  </si>
+  <si>
+    <t>Additional Projects: Custom Jobs</t>
+  </si>
+  <si>
+    <t>TEAM MEMBER WORK LOG</t>
+  </si>
+  <si>
+    <t>ROUND-UP OF WORK DONE SINCE PREVIOUS PERORMANCE REVIEW</t>
+  </si>
+  <si>
+    <t>MOVING FORWARD</t>
+  </si>
+  <si>
+    <t>TOP STRENGTH(S)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL COMMENTS</t>
+  </si>
+  <si>
+    <t>GROWTH AREA(S)</t>
+  </si>
+  <si>
+    <t>Work Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,13 +195,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -155,8 +215,46 @@
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +265,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor rgb="FF0C343D"/>
       </patternFill>
     </fill>
     <fill>
@@ -223,8 +315,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009AB2"/>
+        <bgColor rgb="FF009AB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C7CC"/>
+        <bgColor rgb="FFA4C7CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -247,50 +351,519 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,146 +1191,140 @@
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -808,14 +1375,337 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="7">
-    <mergeCell ref="G1:K3"/>
-    <mergeCell ref="L1:L3"/>
+  <mergeCells count="6">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="F1:J3"/>
+    <mergeCell ref="K1:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC591D0-E4F0-4C97-A358-E3B604CB8727}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="68"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="68"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="2:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="68"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="69"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:G25"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B11:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/includes/file_modele/template-worklog.xlsx
+++ b/includes/file_modele/template-worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stage\wp-content\plugins\orion-task-manager\includes\file_modele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\oriontest\wp-content\plugins\orion-task-manager\includes\file_modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726B5C5-97D2-432B-9A98-5D7172F6C110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313E668-704E-4C5B-9759-57DC77369748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worklog" sheetId="1" r:id="rId1"/>
@@ -87,67 +87,67 @@
     <t>DEPARTMENT</t>
   </si>
   <si>
+    <t>CHARACTERISTICS</t>
+  </si>
+  <si>
+    <t>WHAT WORK WAS DONE?</t>
+  </si>
+  <si>
+    <t>UNSATISFACTORY (0 - 39)</t>
+  </si>
+  <si>
+    <t>FAIR (40 - 60)</t>
+  </si>
+  <si>
+    <t>GOOD (61 - 85)</t>
+  </si>
+  <si>
+    <t>EXCELLENT (86 - 100)</t>
+  </si>
+  <si>
+    <t>General Performance: Goals versus Accomplishment</t>
+  </si>
+  <si>
+    <t>Overall rating from Support Department</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Initiative &amp; Creativity: Ability to understand, plan work, and to proceed with a task without being told every detail + the ability to make constructive suggestions)</t>
+  </si>
+  <si>
+    <t>Additional Projects: Custom Jobs</t>
+  </si>
+  <si>
+    <t>TEAM MEMBER WORK LOG</t>
+  </si>
+  <si>
+    <t>ROUND-UP OF WORK DONE SINCE PREVIOUS PERORMANCE REVIEW</t>
+  </si>
+  <si>
+    <t>MOVING FORWARD</t>
+  </si>
+  <si>
+    <t>TOP STRENGTH(S)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL COMMENTS</t>
+  </si>
+  <si>
+    <t>GROWTH AREA(S)</t>
+  </si>
+  <si>
+    <t>Work Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH : </t>
+  </si>
+  <si>
     <t>POSITION HELD</t>
   </si>
   <si>
     <t>Developer</t>
-  </si>
-  <si>
-    <t>CHARACTERISTICS</t>
-  </si>
-  <si>
-    <t>WHAT WORK WAS DONE?</t>
-  </si>
-  <si>
-    <t>UNSATISFACTORY (0 - 39)</t>
-  </si>
-  <si>
-    <t>FAIR (40 - 60)</t>
-  </si>
-  <si>
-    <t>GOOD (61 - 85)</t>
-  </si>
-  <si>
-    <t>EXCELLENT (86 - 100)</t>
-  </si>
-  <si>
-    <t>General Performance: Goals versus Accomplishment</t>
-  </si>
-  <si>
-    <t>Overall rating from Support Department</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Initiative &amp; Creativity: Ability to understand, plan work, and to proceed with a task without being told every detail + the ability to make constructive suggestions)</t>
-  </si>
-  <si>
-    <t>Additional Projects: Custom Jobs</t>
-  </si>
-  <si>
-    <t>TEAM MEMBER WORK LOG</t>
-  </si>
-  <si>
-    <t>ROUND-UP OF WORK DONE SINCE PREVIOUS PERORMANCE REVIEW</t>
-  </si>
-  <si>
-    <t>MOVING FORWARD</t>
-  </si>
-  <si>
-    <t>TOP STRENGTH(S)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL COMMENTS</t>
-  </si>
-  <si>
-    <t>GROWTH AREA(S)</t>
-  </si>
-  <si>
-    <t>Work Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTH : </t>
   </si>
 </sst>
 </file>
@@ -641,10 +641,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -656,6 +655,56 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,7 +717,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,12 +726,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,9 +735,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,34 +744,51 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -742,7 +798,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,118 +814,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1193,195 +1198,157 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="6">
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:J3"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1390,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC591D0-E4F0-4C97-A358-E3B604CB8727}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,304 +1375,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="65" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
+      <c r="C19" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="66"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="24" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="67"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+    </row>
+    <row r="25" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="2:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="28"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="28"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:G25"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B11:G14"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:G24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B10:G13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
